--- a/Proyecto/Modulo 5/M2/ModelMetricsDef_d2v.xlsx
+++ b/Proyecto/Modulo 5/M2/ModelMetricsDef_d2v.xlsx
@@ -420,16 +420,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.66873</v>
+        <v>0.6727</v>
       </c>
       <c r="C2">
-        <v>0.6847800000000001</v>
+        <v>0.68242</v>
       </c>
       <c r="D2">
-        <v>0.66711</v>
+        <v>0.66578</v>
       </c>
       <c r="E2">
-        <v>0.69008</v>
+        <v>0.69302</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,16 +437,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.69841</v>
+        <v>0.70126</v>
       </c>
       <c r="C3">
-        <v>0.69856</v>
+        <v>0.70134</v>
       </c>
       <c r="D3">
-        <v>0.69356</v>
+        <v>0.68974</v>
       </c>
       <c r="E3">
-        <v>0.70189</v>
+        <v>0.70465</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,16 +454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.78127</v>
+        <v>0.7849699999999999</v>
       </c>
       <c r="C4">
-        <v>0.82823</v>
+        <v>0.81315</v>
       </c>
       <c r="D4">
-        <v>0.7904099999999999</v>
+        <v>0.79783</v>
       </c>
       <c r="E4">
-        <v>0.83391</v>
+        <v>0.8344</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,16 +471,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.6420893879165992</v>
+        <v>0.6461280669244692</v>
       </c>
       <c r="C5">
-        <v>0.6508206427251935</v>
+        <v>0.6514760696275426</v>
       </c>
       <c r="D5">
-        <v>0.6379218196854166</v>
+        <v>0.6345279468198743</v>
       </c>
       <c r="E5">
-        <v>0.6560300355093411</v>
+        <v>0.6595546877334542</v>
       </c>
     </row>
   </sheetData>
